--- a/scenarios/cough/processes/APISolver.xlsx
+++ b/scenarios/cough/processes/APISolver.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="90">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -287,13 +287,47 @@
     <t xml:space="preserve">fasttrack_extract</t>
   </si>
   <si>
-    <t xml:space="preserve">GO(fasttrack_extract2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fasttrack_extract2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TE steht für Thymian (Thymus vulgaris) und Efeu-Extrakt (Hedera helix) - die stärkste Kombination um Schleim zu lösen. </t>
+    <t xml:space="preserve">Die Kombination aus Thymian (Thymus vulgaris) und Efeu (Hedera helix) ist meiner Meinung nach die Stärkste um Schleim zu lösen.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">SELECT * FROM API WHERE Name == </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Thymian_Efeu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">'</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">synth </t>
@@ -461,7 +495,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="7" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="15" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
@@ -612,10 +646,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D40" activeCellId="0" sqref="D40"/>
+      <selection pane="topLeft" activeCell="F55" activeCellId="0" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1070,7 +1104,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="27.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
         <v>75</v>
       </c>
@@ -1083,7 +1117,7 @@
       </c>
       <c r="E32" s="7"/>
     </row>
-    <row r="33" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="27.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4"/>
       <c r="B33" s="9"/>
       <c r="C33" s="4" t="s">
@@ -1096,7 +1130,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4"/>
       <c r="B34" s="9"/>
       <c r="C34" s="4" t="s">
@@ -1109,7 +1143,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4"/>
       <c r="B35" s="9"/>
       <c r="C35" s="4" t="s">
@@ -1128,80 +1162,68 @@
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="4" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="4" t="s">
+    </row>
+    <row r="37" customFormat="false" ht="27.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="12"/>
+      <c r="E37" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="G37" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="27.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" s="9"/>
+      <c r="C38" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="27.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D38" s="12"/>
-      <c r="E38" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="G38" s="16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="D38" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="0"/>
+      <c r="G38" s="0"/>
+    </row>
+    <row r="39" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="4"/>
       <c r="B39" s="9"/>
       <c r="C39" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E39" s="7"/>
-    </row>
-    <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E40" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E39" s="7" t="s">
         <v>80</v>
       </c>
     </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>

--- a/scenarios/cough/processes/APISolver.xlsx
+++ b/scenarios/cough/processes/APISolver.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="90">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -317,7 +317,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Thymian_Efeu</t>
+      <t xml:space="preserve">Thymian Efeu</t>
     </r>
     <r>
       <rPr>
@@ -648,8 +648,8 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F55" activeCellId="0" sqref="F55"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -659,7 +659,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="60.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="25.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="42.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="46.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="7" style="2" width="11.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.14"/>
   </cols>
@@ -1172,6 +1172,9 @@
       </c>
       <c r="F36" s="8" t="s">
         <v>83</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="27.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/scenarios/cough/processes/APISolver.xlsx
+++ b/scenarios/cough/processes/APISolver.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tamim\Documents\GitHub\dein-apotheker-scenarios\scenarios\cough\processes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D5FC2E-4227-486B-BE1C-AFAAE9581256}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6107161-449D-4D65-AC6C-95D123F4C1B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16749" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5451" yWindow="5769" windowWidth="11022" windowHeight="6925" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="9 APISolver" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="82">
   <si>
     <t>ID</t>
   </si>
@@ -82,9 +82,6 @@
     <t>Q</t>
   </si>
   <si>
-    <t>Das ist ein toller Hustenlöser. Mein persönlicher Favourit. Zum fortfahren, füge das Medikament einfach zum Einkaufswagen hinzu. Am Ende sprechen wir noch über das Produkt und wie du es anwendest. Wenn du stattdessen ein anderes Medikament möchtest, dann stell mir eine Frage:</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -148,9 +145,6 @@
     <t>Erklärung Phytopharmaka</t>
   </si>
   <si>
-    <t>Im speziellen Fall Husten, ist es tatsächlich so, dass bestimmte Pflanzliche Präparate wirksamer sind und auch eine besser Studienlage haben, als die Synthetischen Wirkstoffe.</t>
-  </si>
-  <si>
     <t>Okay, und welcher Exrakt ist der beste?</t>
   </si>
   <si>
@@ -196,12 +190,6 @@
     <t>Gute Wahl! Im speziellen Fall Husten, ist es tatsächlich so, dass bestimmte Pflanzliche Präparate nicht nur wunderbar verträglich sind, sondern auch eine tolle Studienlage zur Wirksamkeit vorweisen können. - Möchtest du wissen, welche verschiedenen Pflanzlichen Wirkstoffe es gibt?</t>
   </si>
   <si>
-    <t>Gib mir einfach das pflanzliche Medikament, was deiner Meinung nach am besten ist.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Welche Wirkstoffe/Extrakte wirken denn gut? </t>
-  </si>
-  <si>
     <t>phyto_t</t>
   </si>
   <si>
@@ -247,28 +235,16 @@
     <t>N</t>
   </si>
   <si>
-    <t>GO(phyto_det2)</t>
-  </si>
-  <si>
     <t>SELECT * FROM API WHERE CategoryChoice == 'SolverPlant'</t>
   </si>
   <si>
     <t>[api_solver]</t>
   </si>
   <si>
-    <t>phyto_det2</t>
-  </si>
-  <si>
-    <t>Wähle einen der angezeigten Extrakte aus um fortzufahren. Oder möchtest du mir eine Frage stellen?</t>
-  </si>
-  <si>
     <t>Wie kannst du dir so sicher sein, dass die Extrakte gut oder schlecht sind?</t>
   </si>
   <si>
     <t>Welchen Extrakt findest du am Besten?</t>
-  </si>
-  <si>
-    <t>Okay. Ich habe mich für einen Extrakt entschieden.</t>
   </si>
   <si>
     <t>JUMP(Usability1)</t>
@@ -326,9 +302,6 @@
     <t>Chemisch Auswahl</t>
   </si>
   <si>
-    <t>GO(synth2)</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -359,23 +332,35 @@
     </r>
   </si>
   <si>
-    <t>synth2</t>
-  </si>
-  <si>
-    <t>Okay. Ich habe mich für einen Wirkstoff entschieden.</t>
-  </si>
-  <si>
     <t>Add to cart.</t>
   </si>
   <si>
     <t>CART(), JUMP(Night)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das hier ist ein toller Hustenlöser. Mein persönlicher Favourit. Zum fortfahren, füge das Medikament einfach zum Einkaufswagen hinzu. Am Ende sprechen wir noch über das Produkt und wie du es anwendest. Oder  du möchtest stattdessen ein anderes Medikament. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Welche Wirkstoffe/Extrakte gibt es denn gut? </t>
+  </si>
+  <si>
+    <t>Ich möchte den wirksamsten Extrakt!</t>
+  </si>
+  <si>
+    <t>Im speziellen Fall Husten, ist es tatsächlich so, dass bestimmte Pflanzliche Präparate wirksamer sind und auch eine besser Studienlage haben, als die synthetischen Wirkstoffe.</t>
+  </si>
+  <si>
+    <t>Wähle einen der angezeigten Extrakte aus um fortzufahren.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wähle einen der angezeigten Extrakte aus um fortzufahren. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -404,6 +389,14 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -455,7 +448,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1" indent="15"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -506,6 +499,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -890,10 +895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMI38"/>
+  <dimension ref="A1:AMI34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:E3"/>
+    <sheetView tabSelected="1" topLeftCell="C29" zoomScale="119" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -931,7 +936,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -942,7 +947,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="8" t="s">
@@ -953,68 +958,68 @@
       <c r="A3" s="4"/>
       <c r="B3" s="9"/>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="9"/>
       <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="4"/>
       <c r="B5" s="9"/>
       <c r="C5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="C6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>22</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>23</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="13"/>
     </row>
@@ -1022,66 +1027,66 @@
       <c r="A8" s="4"/>
       <c r="B8" s="9"/>
       <c r="C8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="9"/>
       <c r="C9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="9"/>
       <c r="C10" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="9"/>
       <c r="C11" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>32</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>33</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="E12" s="13"/>
     </row>
@@ -1089,53 +1094,53 @@
       <c r="A13" s="4"/>
       <c r="B13" s="9"/>
       <c r="C13" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="9"/>
       <c r="C14" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="9"/>
       <c r="C15" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A16" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E16" s="13"/>
     </row>
@@ -1143,107 +1148,107 @@
       <c r="A17" s="4"/>
       <c r="B17" s="9"/>
       <c r="C17" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="9"/>
       <c r="C18" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="9"/>
       <c r="C19" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="9"/>
       <c r="C20" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A21" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E21" s="13"/>
     </row>
-    <row r="22" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="9"/>
       <c r="C22" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="9"/>
       <c r="C23" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="160.30000000000001" x14ac:dyDescent="0.4">
       <c r="A24" s="10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E24" s="13"/>
     </row>
@@ -1251,212 +1256,162 @@
       <c r="A25" s="4"/>
       <c r="B25" s="9"/>
       <c r="C25" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="4"/>
       <c r="B26" s="9"/>
       <c r="C26" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="9"/>
       <c r="C27" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="233.15" x14ac:dyDescent="0.4">
       <c r="A28" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E28" s="7"/>
     </row>
     <row r="29" spans="1:7" ht="247.75" x14ac:dyDescent="0.4">
       <c r="A29" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E29" s="7"/>
     </row>
     <row r="30" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A30" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" s="12"/>
+        <v>62</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>80</v>
+      </c>
       <c r="E30" s="13" t="s">
         <v>67</v>
       </c>
       <c r="F30" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A31" s="19"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A32" s="19"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A33" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="G30" s="16" t="s">
+      <c r="B33" s="20"/>
+      <c r="C33" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="21" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A31" s="4" t="s">
+      <c r="E33" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="6" t="s">
+      <c r="G33" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A34" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="7"/>
-    </row>
-    <row r="32" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A32" s="4"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="6" t="s">
+      <c r="B34" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A33" s="4"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="6" t="s">
+      <c r="C34" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F34" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A34" s="4"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A35" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G35" s="16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A36" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="G36" s="16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A37" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E37" s="7"/>
-      <c r="F37"/>
-      <c r="G37"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A38" s="4"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>75</v>
+      <c r="G34" s="16" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/scenarios/cough/processes/APISolver.xlsx
+++ b/scenarios/cough/processes/APISolver.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tamim\Documents\GitHub\dein-apotheker-scenarios\scenarios\cough\processes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6107161-449D-4D65-AC6C-95D123F4C1B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92828143-89C0-4E45-B7C9-C5942B6DCA45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5451" yWindow="5769" windowWidth="11022" windowHeight="6925" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16749" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="9 APISolver" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="77">
   <si>
     <t>ID</t>
   </si>
@@ -235,103 +235,18 @@
     <t>N</t>
   </si>
   <si>
-    <t>SELECT * FROM API WHERE CategoryChoice == 'SolverPlant'</t>
-  </si>
-  <si>
     <t>[api_solver]</t>
   </si>
   <si>
-    <t>Wie kannst du dir so sicher sein, dass die Extrakte gut oder schlecht sind?</t>
-  </si>
-  <si>
-    <t>Welchen Extrakt findest du am Besten?</t>
-  </si>
-  <si>
     <t>JUMP(Usability1)</t>
   </si>
   <si>
-    <t>fasttrack_extract</t>
-  </si>
-  <si>
-    <t>Die Kombination aus Thymian (Thymus vulgaris) und Efeu (Hedera helix) ist meiner Meinung nach die Stärkste um Schleim zu lösen.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">SELECT * FROM API WHERE Name == </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Thymian Efeu</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>'</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">synth </t>
   </si>
   <si>
     <t>Chemisch Auswahl</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>SELECT * FROM API WHERE CategoryChoice == '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>SolverSynth</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>'</t>
-    </r>
-  </si>
-  <si>
     <t>Add to cart.</t>
   </si>
   <si>
@@ -354,13 +269,19 @@
   </si>
   <si>
     <t xml:space="preserve">Wähle einen der angezeigten Extrakte aus um fortzufahren. </t>
+  </si>
+  <si>
+    <t>SELECT * FROM API WHERE (CategoryChoice == 'SolverPlant' AND Include == 'ja')</t>
+  </si>
+  <si>
+    <t>SELECT * FROM API WHERE (CategoryChoice == 'SolverSynth' AND Include == 'ja')</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -389,14 +310,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -448,7 +361,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1" indent="15"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -499,18 +412,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -895,10 +796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMI34"/>
+  <dimension ref="A1:AMI31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C29" zoomScale="119" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="119" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -947,7 +848,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="8" t="s">
@@ -961,10 +862,10 @@
         <v>12</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -1086,7 +987,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E12" s="13"/>
     </row>
@@ -1218,7 +1119,7 @@
         <v>12</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>34</v>
@@ -1231,7 +1132,7 @@
         <v>12</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>36</v>
@@ -1328,86 +1229,39 @@
         <v>62</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F30" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="G30" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="G30" s="16" t="s">
+    </row>
+    <row r="31" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A31" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" s="13" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A31" s="19"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A32" s="19"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A33" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E33" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G33" s="16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A34" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="G34" s="16" t="s">
-        <v>64</v>
+      <c r="F31" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/scenarios/cough/processes/APISolver.xlsx
+++ b/scenarios/cough/processes/APISolver.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tamim\Documents\GitHub\dein-apotheker-scenarios\scenarios\cough\processes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92828143-89C0-4E45-B7C9-C5942B6DCA45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8824264-22DF-4754-8EF5-D65BDF13CACD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16749" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="76">
   <si>
     <t>ID</t>
   </si>
@@ -187,9 +187,6 @@
     <t>Pflanzlich</t>
   </si>
   <si>
-    <t>Gute Wahl! Im speziellen Fall Husten, ist es tatsächlich so, dass bestimmte Pflanzliche Präparate nicht nur wunderbar verträglich sind, sondern auch eine tolle Studienlage zur Wirksamkeit vorweisen können. - Möchtest du wissen, welche verschiedenen Pflanzlichen Wirkstoffe es gibt?</t>
-  </si>
-  <si>
     <t>phyto_t</t>
   </si>
   <si>
@@ -256,12 +253,6 @@
     <t xml:space="preserve">Das hier ist ein toller Hustenlöser. Mein persönlicher Favourit. Zum fortfahren, füge das Medikament einfach zum Einkaufswagen hinzu. Am Ende sprechen wir noch über das Produkt und wie du es anwendest. Oder  du möchtest stattdessen ein anderes Medikament. </t>
   </si>
   <si>
-    <t xml:space="preserve">Welche Wirkstoffe/Extrakte gibt es denn gut? </t>
-  </si>
-  <si>
-    <t>Ich möchte den wirksamsten Extrakt!</t>
-  </si>
-  <si>
     <t>Im speziellen Fall Husten, ist es tatsächlich so, dass bestimmte Pflanzliche Präparate wirksamer sind und auch eine besser Studienlage haben, als die synthetischen Wirkstoffe.</t>
   </si>
   <si>
@@ -275,6 +266,12 @@
   </si>
   <si>
     <t>SELECT * FROM API WHERE (CategoryChoice == 'SolverSynth' AND Include == 'ja')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gute Wahl! Im speziellen Fall Husten, ist es tatsächlich so, dass bestimmte Pflanzliche Präparate nicht nur wunderbar verträglich sind, sondern auch eine tolle Studienlage zur Wirksamkeit vorweisen können. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interessant :) </t>
   </si>
 </sst>
 </file>
@@ -796,9 +793,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMI31"/>
+  <dimension ref="A1:AMI30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="119" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="119" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
@@ -848,7 +845,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="8" t="s">
@@ -862,10 +859,10 @@
         <v>12</v>
       </c>
       <c r="D3" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>67</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -987,7 +984,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E12" s="13"/>
     </row>
@@ -1097,7 +1094,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A21" s="10" t="s">
         <v>45</v>
       </c>
@@ -1108,7 +1105,7 @@
         <v>11</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="E21" s="13"/>
     </row>
@@ -1119,39 +1116,39 @@
         <v>12</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A23" s="4"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="160.30000000000001" x14ac:dyDescent="0.4">
-      <c r="A24" s="10" t="s">
+    <row r="23" spans="1:7" ht="160.30000000000001" x14ac:dyDescent="0.4">
+      <c r="A23" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="C23" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="12" t="s">
+      <c r="E23" s="13"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A24" s="4"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="13"/>
+      <c r="E24" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="4"/>
@@ -1160,108 +1157,95 @@
         <v>12</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A26" s="4"/>
       <c r="B26" s="9"/>
       <c r="C26" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A27" s="4"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="233.15" x14ac:dyDescent="0.4">
+      <c r="A27" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="B27" s="9"/>
       <c r="C27" s="4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="233.15" x14ac:dyDescent="0.4">
+        <v>56</v>
+      </c>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="1:7" ht="247.75" x14ac:dyDescent="0.4">
       <c r="A28" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E28" s="7"/>
     </row>
-    <row r="29" spans="1:7" ht="247.75" x14ac:dyDescent="0.4">
-      <c r="A29" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="6" t="s">
+    <row r="29" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A29" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E29" s="7"/>
+      <c r="B29" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="30" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A30" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="D30" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G30" s="16" t="s">
         <v>62</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="G30" s="16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A31" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/scenarios/cough/processes/APISolver.xlsx
+++ b/scenarios/cough/processes/APISolver.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tamim\Documents\GitHub\dein-apotheker-scenarios\scenarios\cough\processes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8824264-22DF-4754-8EF5-D65BDF13CACD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C01751E-CF1F-4440-B14B-B0FCFAF5825C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16749" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -795,8 +795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMI30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="119" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>

--- a/scenarios/cough/processes/APISolver.xlsx
+++ b/scenarios/cough/processes/APISolver.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="78">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t xml:space="preserve">Output</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Popup</t>
   </si>
   <si>
     <t xml:space="preserve">solver </t>
@@ -393,7 +399,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -408,6 +414,10 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -544,13 +554,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="119" zoomScaleNormal="119" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F34" activeCellId="0" sqref="F34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="119" zoomScaleNormal="119" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.16015625" defaultRowHeight="14.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="14.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.15"/>
@@ -584,419 +594,425 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="58.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="D2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4"/>
-      <c r="B3" s="9"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="10"/>
       <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>16</v>
+      <c r="A4" s="5"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>18</v>
+      <c r="A5" s="5"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="116.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="B6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="C6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="87.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="15"/>
+    </row>
+    <row r="17" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="15"/>
+    </row>
+    <row r="22" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="160.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="233.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="14"/>
-    </row>
-    <row r="8" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="14"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="87.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="14"/>
-    </row>
-    <row r="17" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="14"/>
-    </row>
-    <row r="22" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="160.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="14"/>
-    </row>
-    <row r="24" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="233.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E27" s="7"/>
+      <c r="D27" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="8"/>
     </row>
     <row r="28" customFormat="false" ht="247.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E28" s="7"/>
+      <c r="A28" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="8"/>
     </row>
     <row r="29" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="11" t="s">
+      <c r="A29" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="B29" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="C29" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="F29" s="16" t="s">
+      <c r="D29" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="G29" s="17" t="s">
+      <c r="E29" s="15" t="s">
         <v>71</v>
       </c>
+      <c r="F29" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B30" s="12" t="s">
+      <c r="A30" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30" s="18" t="s">
         <v>73</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="G30" s="17" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
